--- a/biology/Microbiologie/Antibiotique_bêta-lactamine/Antibiotique_bêta-lactamine.xlsx
+++ b/biology/Microbiologie/Antibiotique_bêta-lactamine/Antibiotique_bêta-lactamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antibiotique_b%C3%AAta-lactamine</t>
+          <t>Antibiotique_bêta-lactamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bêta-lactamines (β-lactamines) ou antibiotiques β-lactame sont une large classe d'antibiotiques qui comprennent les dérivés de la pénicilline, les céphalosporines, les monobactames, les carbapénèmes et les inhibiteurs de la β-lactamase, en bref, tout antibiotique qui contient un noyau β-lactame dans sa structure moléculaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bêta-lactamines (β-lactamines) ou antibiotiques β-lactame sont une large classe d'antibiotiques qui comprennent les dérivés de la pénicilline, les céphalosporines, les monobactames, les carbapénèmes et les inhibiteurs de la β-lactamase, en bref, tout antibiotique qui contient un noyau β-lactame dans sa structure moléculaire.
 Ces molécules possèdent un noyau (cycle bêta-lactame) qui est la partie efficace de la molécule. Des variations au niveau de la chaîne latérale naturelle ou greffée permettent de modifier les propriétés de la molécule antibiotique.
 Par exemple, l'apport d'une chaîne greffée entraîne une résistance aux acides (suc gastrique) et permet l'ingestion de l'antibiotique par voie orale. Cette méthode augmente la diversité et le spectre d'action en contournant des résistances des bactéries et de leurs enzymes de dégradation (bêta-lactamases).
 Parmi les antibiotiques disponibles, c'est le groupe le plus utilisé.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antibiotique_b%C3%AAta-lactamine</t>
+          <t>Antibiotique_bêta-lactamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Usage clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bêta-lactamines sont le traitement de référence de nombreuses infections. Elles sont particulièrement efficaces contre la majorité des bactéries Gram positives, certaines bêta-lactamines ont un spectre élargi à diverses bactéries Gram négatives. En raison de leur usage très courant en médecine de ville comme à l’hôpital de nombreuses résistances ont vu le jour. Par exemple certains pneumocoques de sensibilité diminué à la pénicilline (PSDP) ont développé une résistance par la modification des protéines qui se lient à la pénicilline. Il faut alors augmenter les doses de bêta-lactamines ou leur substituer de la vancomycine ou de la rifampicine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bêta-lactamines sont le traitement de référence de nombreuses infections. Elles sont particulièrement efficaces contre la majorité des bactéries Gram positives, certaines bêta-lactamines ont un spectre élargi à diverses bactéries Gram négatives. En raison de leur usage très courant en médecine de ville comme à l’hôpital de nombreuses résistances ont vu le jour. Par exemple certains pneumocoques de sensibilité diminué à la pénicilline (PSDP) ont développé une résistance par la modification des protéines qui se lient à la pénicilline. Il faut alors augmenter les doses de bêta-lactamines ou leur substituer de la vancomycine ou de la rifampicine.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antibiotique_b%C3%AAta-lactamine</t>
+          <t>Antibiotique_bêta-lactamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action antibactérienne des pénicillines provient de leur liaison aux protéines de liaison aux pénicillines (PLP) et surtout, de l'inhibition des activités de transpeptidases impliquées dans la synthèse du peptidoglycane, l'une des enveloppe de la paroi bactérienne. Ce peptidoglycane est composée d'un module de base répété : un disaccharide composé de N-acétylglucosamine et d'acide N-acétyl muramique. Ce second sucre est modifié par un pentapeptide, lui-même terminé par deux résidus de D-alanine (D-Ala-D-Ala). Ces unités sont ensuite reliées entre elles à l'extérieur de la membrane cytoplasmique par un groupe d'enzymes membranaires appelées transpeptidases. Les antibiotiques de la famille des bêta-lactamines présentent une parenté structurale avec le dipeptide D-Ala-D-Ala constitutif de la paroi, ce qui leur permet d'inhiber l'action des enzymes associées à la synthèse du peptidoglycane.
 Ces antibiotiques agissent donc de l'extérieur de la cellule bactérienne, en se fixant sur ces protéines membranaires, aussi appelées Protéines de Liaison aux Pénicillines (PLP). Ces protéines sont des enzymes catalysant en particulier la formation des liaisons entre les chaînes peptidiques dans la paroi ou assurant le remaniement de ces chaînons. Les PLP essentielles sont capables de réactions de transpeptidation et de tranglycosylation (étape pariétale de la synthèse du peptidoglycane consistant à rattacher de nouvelles chaînes de peptidoglycane à d'autres plus anciennes). Certaines PLP sont des D, D-endopeptidases.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antibiotique_b%C3%AAta-lactamine</t>
+          <t>Antibiotique_bêta-lactamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,41 +596,352 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pénicillines
-Pénicillines à spectre étroit
-benzylpénicilline (pénicilline G)
-phénoxyméthylpénicilline (pénicilline V)
-Antibiotiques bêta-lactame courants résistant à la pénicillinase
-méticilline
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pénicillines à spectre étroit</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>benzylpénicilline (pénicilline G)
+phénoxyméthylpénicilline (pénicilline V)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactame courants résistant à la pénicillinase</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>méticilline
 dicloxacilline
-flucloxacilline
-Pénicillines à spectre moyen
-amoxicilline
-ampicilline
-Pénicillines à spectre large
-augmentin (amoxicilline + acide clavulanique)
-Pénicillines à spectre étendu
-pipéracilline
+flucloxacilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pénicillines à spectre moyen</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>amoxicilline
+ampicilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pénicillines à spectre large</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>augmentin (amoxicilline + acide clavulanique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pénicillines à spectre étendu</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>pipéracilline
 ticarcilline
 azlocilline
-carbénicilline
-Céphalosporines
-Céphalosporines de première génération
-Spectre moyen.
+carbénicilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Céphalosporines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Céphalosporines de première génération</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Spectre moyen.
 céphalexine
 céphalotine
-céphazoline
-Céphalosporines de seconde génération
-Spectre moyen plus activité anti-Haemophilus.
+céphazoline</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Céphalosporines</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Céphalosporines de seconde génération</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Spectre moyen plus activité anti-Haemophilus.
 céfaclor
 céfuroxime
-céfamandole
-Céphamycines de seconde génération
-Spectre moyen avec activité sur les bactéries anaérobies.
+céfamandole</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Céphalosporines</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Céphamycines de seconde génération</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Spectre moyen avec activité sur les bactéries anaérobies.
 céfotétan
-céfoxitine
-Céphalosporines de troisième génération
-Spectre large
+céfoxitine</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Céphalosporines</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Céphalosporines de troisième génération</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Spectre large
 ceftriaxone
 céfixime
 céfotaxime
@@ -622,22 +949,162 @@
 ceftazidime
 posologie :
 Adulte : 2 à 4 g/j en 2 à 4 injections
-Enfant : 50 à 100 mg/kg/j en 2 à 4 injections
-Céphalosporines de quatrième génération
-Spectre large, avec activité améliorée sur les germes Gram positifs et une stabilité face aux bêta-lactamases.
+Enfant : 50 à 100 mg/kg/j en 2 à 4 injections</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Céphalosporines</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Céphalosporines de quatrième génération</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Spectre large, avec activité améliorée sur les germes Gram positifs et une stabilité face aux bêta-lactamases.
 céfépime
-cefpirome
-Carbapénèmes
-Le spectre le plus large des bêta-lactamines.
+cefpirome</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Carbapénèmes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le spectre le plus large des bêta-lactamines.
 imipénème en association avec la cilastatine
 méropénème
 ertapénème
-doripénème
-Monobactames
-À la différence des autres bêta-lactamines, il n'y a pas d'anneau fusionné au noyau bêta-lactame. Partant, peu de probabilité de réactions croisées.
-aztréonam
-Inhibiteurs des bêta-lactamases
-Aucune activité antimicrobienne, leur seul objet est d'empêcher l'inactivation des bêta-lactamines par les bêta-lactamases ; ils sont donc administrés simultanément aux antibiotiques bêta-lactamines :
+doripénème</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Monobactames</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>À la différence des autres bêta-lactamines, il n'y a pas d'anneau fusionné au noyau bêta-lactame. Partant, peu de probabilité de réactions croisées.
+aztréonam</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Antibiotiques bêta-lactamines courants</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Inhibiteurs des bêta-lactamases</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Aucune activité antimicrobienne, leur seul objet est d'empêcher l'inactivation des bêta-lactamines par les bêta-lactamases ; ils sont donc administrés simultanément aux antibiotiques bêta-lactamines :
 acide clavulanique ;
 tazobactam ;
 sulbactam ;
@@ -645,34 +1112,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Antibiotique_b%C3%AAta-lactamine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effets indésirables
-S’ils sont retrouvés dans les produits laitiers, ils peuvent causer des problèmes lors de la transformation à partir de bactéries lactiques (Yaourt, fromage...).
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S’ils sont retrouvés dans les produits laitiers, ils peuvent causer des problèmes lors de la transformation à partir de bactéries lactiques (Yaourt, fromage...).
 Ce sont les antibiotiques les mieux tolérés de l'organisme mais on distingue principalement deux tissus touchés par des effets toxiques :
 effets indésirables touchant les moelle osseuse et le sang :
 Via la pénicilline ou la céphalosporine, on peut retrouver :
@@ -682,37 +1154,74 @@
 Les bêta-lactamines peuvent provoquer une éruption maculopapuleuse ou urticarienne (au septième jour) associée éventuellement à des adénopathies, des arthralgies et de la fièvre.
 Ces complications d'origine allergique sont surtout observées avec les pénicillines (Ampicilline, Amoxicilline) et croisées (dans 5 % des cas) avec les céphalosporines.
 L'ampicilline et l'amoxicilline sont contre-indiquées pour les patients présentant des affections par virus (type affections herpétiques par le virus de l'herpès humain).
-Allergie/hypersensibilité
-Réaction d'hypersensibilité qui peut aller d'un simple prurit jusqu'au choc anaphylactique[3].
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Antibiotique_b%C3%AAta-lactamine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Allergie/hypersensibilité</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réaction d'hypersensibilité qui peut aller d'un simple prurit jusqu'au choc anaphylactique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Tableau d'efficacité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Voici un tableau d'efficacité potentiel des bêta-lactamines.
 Légende :
@@ -721,13 +1230,117 @@
 intermédiaire / résistance fréquente ;
 CG+ : Cocci gram + ;
 BGN : bacilles gram négatif ;
-BG+ : Bacilles gram +.
-Bactéries aérobies
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
-Bactéries anaérobies
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
-Autres bactéries
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+BG+ : Bacilles gram +.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bactéries aérobies</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bactéries anaérobies</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Antibiotique_bêta-lactamine</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_b%C3%AAta-lactamine</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Autres bactéries</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
 Attention aux confusions :	
 mycoplasme =/= mycobactérie
 entérocoques (CG+) =/= entérobactéries (BGN)</t>
